--- a/2020/March/All Details/12.03.2020/MC Balance Transfer March 2020.xlsx
+++ b/2020/March/All Details/12.03.2020/MC Balance Transfer March 2020.xlsx
@@ -1103,7 +1103,7 @@
         <xdr:cNvPr id="1317" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1115,7 +1115,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1138,14 +1138,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1453,9 +1453,9 @@
   <dimension ref="A1:BI231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomLeft" activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2543,14 +2543,14 @@
         <v>396995</v>
       </c>
       <c r="C15" s="2">
-        <v>95745</v>
+        <v>364745</v>
       </c>
       <c r="D15" s="2">
-        <v>930</v>
+        <v>1430</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>96675</v>
+        <v>366175</v>
       </c>
       <c r="F15" s="69"/>
       <c r="G15" s="40"/>
@@ -3779,19 +3779,19 @@
       </c>
       <c r="C33" s="2">
         <f>SUM(C5:C32)</f>
-        <v>3653318</v>
+        <v>3922318</v>
       </c>
       <c r="D33" s="2">
         <f>SUM(D5:D32)</f>
-        <v>11519</v>
+        <v>12019</v>
       </c>
       <c r="E33" s="2">
         <f>SUM(E5:E32)</f>
-        <v>3664837</v>
+        <v>3934337</v>
       </c>
       <c r="F33" s="69">
         <f>B33-E33</f>
-        <v>179958</v>
+        <v>-89542</v>
       </c>
       <c r="G33" s="85"/>
       <c r="H33" s="94" t="s">
@@ -4010,11 +4010,11 @@
       </c>
       <c r="E36" s="122">
         <f>F33-C98+K121</f>
-        <v>306964</v>
+        <v>0</v>
       </c>
       <c r="F36" s="65">
         <f>F33-C98-I43-I42+K121-C103</f>
-        <v>306964</v>
+        <v>0</v>
       </c>
       <c r="G36" s="85"/>
       <c r="H36" s="94"/>
@@ -4574,7 +4574,7 @@
       <c r="A44" s="125"/>
       <c r="B44" s="126"/>
       <c r="C44" s="127">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="D44" s="128"/>
       <c r="E44" s="3"/>
@@ -4900,10 +4900,10 @@
       </c>
       <c r="B49" s="32"/>
       <c r="C49" s="73">
-        <v>55780</v>
+        <v>54780</v>
       </c>
       <c r="D49" s="74" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="117"/>
@@ -4968,10 +4968,10 @@
       </c>
       <c r="B50" s="32"/>
       <c r="C50" s="73">
-        <v>99000</v>
+        <v>100000</v>
       </c>
       <c r="D50" s="138" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="117"/>
@@ -5105,10 +5105,10 @@
       </c>
       <c r="B52" s="32"/>
       <c r="C52" s="73">
-        <v>198320</v>
+        <v>195770</v>
       </c>
       <c r="D52" s="138" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="117"/>
@@ -5655,10 +5655,10 @@
       </c>
       <c r="B60" s="32"/>
       <c r="C60" s="73">
-        <v>235500</v>
+        <v>273000</v>
       </c>
       <c r="D60" s="74" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="32"/>
@@ -5724,10 +5724,10 @@
       </c>
       <c r="B61" s="32"/>
       <c r="C61" s="73">
-        <v>63650</v>
+        <v>66000</v>
       </c>
       <c r="D61" s="74" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="32"/>
@@ -8485,7 +8485,7 @@
       <c r="B98" s="147"/>
       <c r="C98" s="34">
         <f>SUM(C37:C97)</f>
-        <v>1910439</v>
+        <v>1947903</v>
       </c>
       <c r="D98" s="30"/>
       <c r="F98" s="118"/>
@@ -8620,7 +8620,7 @@
       <c r="B100" s="145"/>
       <c r="C100" s="31">
         <f>C98+L121</f>
-        <v>1910439</v>
+        <v>1947903</v>
       </c>
       <c r="D100" s="21"/>
       <c r="F100" s="50"/>
